--- a/StructureDefinition-PueblosIndigenas.xlsx
+++ b/StructureDefinition-PueblosIndigenas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T21:42:18-04:00</t>
+    <t>2023-06-11T16:05:51-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PueblosIndigenas.xlsx
+++ b/StructureDefinition-PueblosIndigenas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="100">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-11T16:05:51-04:00</t>
+    <t>2023-06-30T15:47:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,7 +90,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -151,176 +151,184 @@
     <t>*</t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Extension.id</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Extension.extension:Pueblos</t>
+  </si>
+  <si>
+    <t>Pueblos</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Definición codificada de Pueblos Originarios</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:Pueblos.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:Pueblos.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:Pueblos.url</t>
+  </si>
+  <si>
+    <t>Extension.extension.url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Extension.extension:Pueblos.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Categoría de Pueblos Originarios según table DEIS.</t>
+  </si>
+  <si>
+    <t>https://hospitallaflorida.cl/fhir/hlfhosp/ValueSet/VSPuebloIndigena</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Extension.extension:Otros</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Texto libre para otros pueblos</t>
+  </si>
+  <si>
+    <t>Texto libre para otros pueblos.</t>
+  </si>
+  <si>
+    <t>Extension.extension:Otros.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:Otros.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:Otros.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:Otros.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.extension:Pueblos</t>
-  </si>
-  <si>
-    <t>Pueblos</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Definición codificada de Pueblos Originarios</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:Pueblos.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:Pueblos.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:Pueblos.url</t>
-  </si>
-  <si>
-    <t>Extension.extension.url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Extension.extension:Pueblos.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Categoría de Pueblos Originarios según table DEIS.</t>
-  </si>
-  <si>
-    <t>https://hospitallaflorida.cl/fhir/hlfhosp/ValueSet/VSPuebloIndigena</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Extension.extension:Otros</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>Texto libre para otros pueblos</t>
-  </si>
-  <si>
-    <t>Texto libre para otros pueblos.</t>
-  </si>
-  <si>
-    <t>Extension.extension:Otros.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:Otros.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:Otros.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:Otros.value[x]</t>
-  </si>
-  <si>
     <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+booleancanonicalcodedatedateTimedecimalidinstantintegerinteger64markdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodeableReferenceCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioRatioRangeReferenceSampledDataSignatureTimingContactDetailDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextAvailabilityExtendedContactDetailDosageMeta</t>
   </si>
 </sst>
 </file>
@@ -779,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="AI1" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
         <v>37</v>
@@ -790,10 +798,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -816,13 +824,13 @@
         <v>37</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>48</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -873,16 +881,16 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>37</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>37</v>
@@ -1129,13 +1137,13 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>48</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1186,16 +1194,16 @@
         <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI5" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>37</v>
@@ -1506,10 +1514,10 @@
         <v>39</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -1517,13 +1525,13 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>51</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>37</v>
@@ -1548,10 +1556,10 @@
         <v>53</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1622,7 +1630,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>68</v>
@@ -1648,13 +1656,13 @@
         <v>37</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>48</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1705,16 +1713,16 @@
         <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI10" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>37</v>
@@ -1725,7 +1733,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>70</v>
@@ -1828,7 +1836,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>72</v>
@@ -1871,7 +1879,7 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>37</v>
@@ -1933,7 +1941,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>80</v>
@@ -1959,7 +1967,7 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>82</v>
@@ -2025,10 +2033,10 @@
         <v>39</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -2167,7 +2175,7 @@
         <v>37</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>82</v>
@@ -2233,10 +2241,10 @@
         <v>39</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-PueblosIndigenas.xlsx
+++ b/StructureDefinition-PueblosIndigenas.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T15:47:06-04:00</t>
+    <t>2023-06-30T18:27:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PueblosIndigenas.xlsx
+++ b/StructureDefinition-PueblosIndigenas.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T18:27:12-04:00</t>
+    <t>2023-09-13T17:11:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Patient</t>
   </si>
   <si>
     <t/>
@@ -145,10 +145,14 @@
     <t>extensión de pueblos originarios</t>
   </si>
   <si>
-    <t>Cconceptos para clasificar la pertenencia de la persona a un grupo originario</t>
+    <t>Conceptos para clasificar la pertenencia de la persona a un grupo originario</t>
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -205,10 +209,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.extension:Pueblos</t>
@@ -657,14 +657,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.93359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.27734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.10546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.83203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.33203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.9609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -673,24 +673,24 @@
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="8.734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="46.08984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.7109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="8.5625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="46.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.68359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="9.2890625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -790,7 +790,7 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>37</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -824,13 +824,13 @@
         <v>37</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -881,7 +881,7 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
@@ -890,25 +890,25 @@
         <v>39</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -927,16 +927,16 @@
         <v>37</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -974,19 +974,19 @@
         <v>37</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
@@ -998,10 +998,10 @@
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" hidden="true">
@@ -1009,7 +1009,7 @@
         <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>63</v>
@@ -1034,7 +1034,7 @@
         <v>37</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>65</v>
@@ -1091,7 +1091,7 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
@@ -1103,7 +1103,7 @@
         <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>37</v>
@@ -1137,13 +1137,13 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1194,7 +1194,7 @@
         <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
@@ -1203,13 +1203,13 @@
         <v>39</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" hidden="true">
@@ -1240,7 +1240,7 @@
         <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>28</v>
@@ -1285,19 +1285,19 @@
         <v>37</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
@@ -1309,7 +1309,7 @@
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
@@ -1528,7 +1528,7 @@
         <v>90</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>91</v>
@@ -1553,7 +1553,7 @@
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>92</v>
@@ -1610,7 +1610,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -1622,7 +1622,7 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
@@ -1656,13 +1656,13 @@
         <v>37</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1713,7 +1713,7 @@
         <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -1722,13 +1722,13 @@
         <v>39</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -1759,7 +1759,7 @@
         <v>37</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>28</v>
@@ -1804,19 +1804,19 @@
         <v>37</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -1828,7 +1828,7 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>37</v>
